--- a/xlsx/卫城_intext.xlsx
+++ b/xlsx/卫城_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%9F%8E_(%E9%81%B8%E5%8D%80)</t>
   </si>
   <si>
-    <t>衛城 (選區)</t>
+    <t>卫城 (选区)</t>
   </si>
   <si>
     <t>政策_政策_政治_卫城</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E8%A1%9B%E5%9F%8E</t>
   </si>
   <si>
-    <t>雅典衛城</t>
+    <t>雅典卫城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%80%97%E6%88%B0</t>
   </si>
   <si>
-    <t>消耗戰</t>
+    <t>消耗战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E4%BA%A7</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%9F%8E</t>
